--- a/dependencies/brucella/melitensis-bv1/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/melitensis-bv1/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\melitensis-bv1\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv1/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F49B22-2902-5C4C-AC74-43FFF0F3FD2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="465" windowWidth="21600" windowHeight="17460"/>
+    <workbookView xWindow="14200" yWindow="460" windowWidth="21600" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,24 +48,6 @@
     <t>Bmelitensis1-02B1</t>
   </si>
   <si>
-    <t>NC_003317-2053678</t>
-  </si>
-  <si>
-    <t>NC_003318-596800</t>
-  </si>
-  <si>
-    <t>NC_003317-371299</t>
-  </si>
-  <si>
-    <t>NC_003317-546729</t>
-  </si>
-  <si>
-    <t>NC_003318-957035</t>
-  </si>
-  <si>
-    <t>NC_003317-1740335</t>
-  </si>
-  <si>
     <t>Bmelitensis1-02C</t>
   </si>
   <si>
@@ -77,22 +60,47 @@
     <t>Bmelitensis1-02C3</t>
   </si>
   <si>
-    <t>NC_003317-1031098</t>
-  </si>
-  <si>
-    <t>NC_003317-1008498</t>
-  </si>
-  <si>
     <t>Bmelitensis1-03</t>
+  </si>
+  <si>
+    <t>NC_003318.1-957035</t>
+  </si>
+  <si>
+    <t>NC_003317.1-1740335</t>
+  </si>
+  <si>
+    <t>NC_003317.1-1031098</t>
+  </si>
+  <si>
+    <t>NC_003317.1-2053678</t>
+  </si>
+  <si>
+    <t>NC_003318.1-596800</t>
+  </si>
+  <si>
+    <t>NC_003317.1-371299</t>
+  </si>
+  <si>
+    <t>NC_003317.1-546729</t>
+  </si>
+  <si>
+    <t>NC_003317.1-1008498</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -587,144 +595,144 @@
   </borders>
   <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1139,22 +1147,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1162,123 +1170,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
